--- a/Day2Automation/branch&vacancy.xlsx
+++ b/Day2Automation/branch&vacancy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_learn\quest_python\Day2Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FBD818A-5E9C-4313-9A73-44D0CF64933C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E1B06B-0018-4435-B028-828F63D5C3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{63B133C0-7F92-4ECD-8B58-9086C0A8B9D0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>TestCases</t>
   </si>
@@ -117,17 +117,20 @@
     <t>Vacancy in SALES</t>
   </si>
   <si>
-    <t>other branch</t>
-  </si>
-  <si>
     <t>There is no vacancy for the branch, Try again</t>
+  </si>
+  <si>
+    <t>Other branch</t>
+  </si>
+  <si>
+    <t>Invalid branch with sufficient marks and preference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,12 +160,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -249,16 +246,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -266,23 +257,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,374 +595,384 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="7.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="7" t="b">
+      <c r="I4" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="7" t="b">
+      <c r="I5" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <f>3*2*1</f>
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="7" t="b">
+      <c r="I6" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="7" t="b">
+      <c r="I7" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="7" t="b">
+      <c r="I8" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C9" s="11"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="7" t="b">
+      <c r="I9" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D10" s="8"/>
-      <c r="E10" s="10" t="s">
+      <c r="B10" s="1">
+        <f>3*4*6</f>
+        <v>72</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="7" t="b">
+      <c r="I10" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="7" t="b">
+      <c r="I11" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="7" t="b">
+      <c r="I12" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D13" s="8"/>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="7" t="b">
+      <c r="I13" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D14" s="8"/>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="7" t="b">
+      <c r="I14" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="8"/>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="7" t="b">
+      <c r="I15" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D16" s="8"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="7" t="b">
+      <c r="I16" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D17" s="9"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="7" t="b">
+      <c r="I17" s="4" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="7" t="b">
+      <c r="H18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="4" t="b">
         <v>1</v>
       </c>
     </row>
